--- a/biology/Botanique/Bactridinae/Bactridinae.xlsx
+++ b/biology/Botanique/Bactridinae/Bactridinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groupe Bactridinae est une sous-tribu de plantes de la famille des Arecaceae. 
 </t>
@@ -511,12 +523,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sous-famille des Arecoideae
 Tribu des Cocoseae
-Sous-tribu des  Bactridinae  [1]
-Genres[2] :
+Sous-tribu des  Bactridinae  
+Genres :
 Acrocomia	    avec  9 espèces acceptées, 	entre  Mexique et Amérique Tropicale.
 Astrocaryum	avec 39 espèces acceptées, 	du Mexique à toute l’Amérique Tropicale.
 Aiphanes	    avec 38 espèces acceptées,	en Amérique tropicale.
@@ -549,9 +563,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (11 juin 2013)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (11 juin 2013) :
 Acrocomia    Mart.,  1824
 Aiphanes     Willd., 1806
 Astrocaryum  G.Mey., 1818
